--- a/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
+++ b/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE33F2F-4762-45D4-A7B6-2FF3EFBD65D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="20475" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -40,7 +46,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -54,7 +60,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -65,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -76,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -87,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -104,7 +110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -115,7 +121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -126,7 +132,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -143,7 +149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -154,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -165,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -176,7 +182,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -187,7 +193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -204,7 +210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -215,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -226,7 +232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -243,7 +249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -254,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -265,7 +271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -276,7 +282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -287,7 +293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -298,7 +304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -309,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -326,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -343,7 +349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -360,7 +366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -377,7 +383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -394,7 +400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -411,19 +417,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -431,7 +437,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -439,7 +445,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -467,16 +473,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,12 +493,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,9 +576,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,6 +628,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,15 +820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
@@ -799,7 +846,7 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -844,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -857,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
+++ b/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANSCS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CFC87D-EEE6-4EC8-AB78-5B3499968AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="20475" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -40,7 +46,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -54,7 +60,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -65,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -76,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -87,7 +93,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -104,7 +110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -115,7 +121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -126,7 +132,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -143,7 +149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -154,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -165,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -176,7 +182,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -187,7 +193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -204,7 +210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -215,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -226,7 +232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -243,7 +249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -254,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -265,7 +271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -276,7 +282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -287,7 +293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -298,7 +304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -309,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -326,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -343,7 +349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -360,7 +366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -377,7 +383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -394,7 +400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -411,19 +417,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -431,7 +437,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -439,7 +445,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -467,16 +473,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,12 +493,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,9 +576,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,6 +628,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,15 +820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
@@ -799,7 +846,7 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -844,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -857,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
+++ b/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE33F2F-4762-45D4-A7B6-2FF3EFBD65D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0BB7F2-F390-4170-965C-9926679AC30D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>工号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>奖</t>
     </r>
@@ -411,6 +407,10 @@
   </si>
   <si>
     <t>年度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -824,14 +824,14 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
@@ -844,47 +844,52 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{53FE9199-0B8C-45B2-8D08-B03380A97703}">
+      <formula1>"累计,一次性"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -894,7 +899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
+++ b/controller/src/main/resources/jxls_templates/jiangjinfasong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANSCS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CFC87D-EEE6-4EC8-AB78-5B3499968AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0BB7F2-F390-4170-965C-9926679AC30D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>工号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>奖</t>
     </r>
@@ -411,6 +407,10 @@
   </si>
   <si>
     <t>年度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -824,14 +824,14 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
@@ -844,47 +844,52 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{53FE9199-0B8C-45B2-8D08-B03380A97703}">
+      <formula1>"累计,一次性"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -894,7 +899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
